--- a/data/progressReportTemp.xlsx
+++ b/data/progressReportTemp.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,6 +432,9 @@
       <c r="Q1" t="str">
         <v>dissertationSubmitted</v>
       </c>
+      <c r="R1" t="str">
+        <v>notes</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -449,6 +452,9 @@
       <c r="G2" t="str">
         <v/>
       </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -466,6 +472,9 @@
       <c r="Q3" t="str">
         <v/>
       </c>
+      <c r="R3" t="str">
+        <v>Note #3: Note 3 (2021-05-04)_x000d_third note!_x000d_Note #2: Note 2 (2021-04-18)_x000d_second note!_x000d_Note #1: Note 1 (2021-04-01)_x000d_first note!_x000d_</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -513,6 +522,9 @@
       <c r="Q4" t="str">
         <v>2019-09-18</v>
       </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -560,6 +572,9 @@
       <c r="Q5" t="str">
         <v>2019-09-18</v>
       </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -577,6 +592,9 @@
       <c r="F6" t="str">
         <v>member, other</v>
       </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -624,10 +642,13 @@
       <c r="Q7" t="str">
         <v>2019-09-18</v>
       </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/progressReportTemp.xlsx
+++ b/data/progressReportTemp.xlsx
@@ -473,7 +473,7 @@
         <v/>
       </c>
       <c r="R3" t="str">
-        <v>Note #3: Note 3 (2021-05-04)_x000d_third note!_x000d_Note #2: Note 2 (2021-04-18)_x000d_second note!_x000d_Note #1: Note 1 (2021-04-01)_x000d_first note!_x000d_</v>
+        <v>Note #3: Note 3 (2021-05-04)_x000d_third note!_x000d__x000d_Note #2: Note 2 (2021-04-18)_x000d_second note!_x000d__x000d_Note #1: Note 1 (2021-04-01)_x000d_first note!_x000d__x000d_</v>
       </c>
     </row>
     <row r="4">

--- a/data/progressReportTemp.xlsx
+++ b/data/progressReportTemp.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,7 +406,7 @@
         <v>technicalWritingApproved</v>
       </c>
       <c r="I1" t="str">
-        <v>backgroundPrepWorksheetApproved</v>
+        <v>backgroundApproved</v>
       </c>
       <c r="J1" t="str">
         <v>researchPlanningMeeting</v>
@@ -415,240 +415,80 @@
         <v>programProductRequirement</v>
       </c>
       <c r="L1" t="str">
-        <v>programOfStudyApproved</v>
+        <v>msProgramOfStudyApproved</v>
       </c>
       <c r="M1" t="str">
+        <v>phdProgramOfStudyApproved</v>
+      </c>
+      <c r="N1" t="str">
         <v>committeeCompApproved</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>phdProposalApproved</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>oralExamPassed</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>dissertationDefencePassed</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>dissertationSubmitted</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>notes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Create</v>
+        <v>fake</v>
       </c>
       <c r="B2" t="str">
-        <v>Test</v>
+        <v>fake</v>
       </c>
       <c r="C2" t="str">
-        <v>person, person</v>
+        <v>Test, Test</v>
       </c>
       <c r="E2" t="str">
-        <v>test, test</v>
+        <v>Test, Test</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>2019-09-18</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="I2" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="N2" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>2019-09-18</v>
       </c>
       <c r="R2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>bodnar</v>
-      </c>
-      <c r="B3" t="str">
-        <v>hannah</v>
-      </c>
-      <c r="C3" t="str">
-        <v>person, person</v>
-      </c>
-      <c r="E3" t="str">
-        <v>test, test</v>
-      </c>
-      <c r="Q3" t="str">
-        <v/>
-      </c>
-      <c r="R3" t="str">
-        <v>Note #3: Note 3 (2021-05-04)_x000d_third note!_x000d__x000d_Note #2: Note 2 (2021-04-18)_x000d_second note!_x000d__x000d_Note #1: Note 1 (2021-04-01)_x000d_first note!_x000d__x000d_</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>fake</v>
-      </c>
-      <c r="B4" t="str">
-        <v>fake</v>
-      </c>
-      <c r="C4" t="str">
-        <v>test, test</v>
-      </c>
-      <c r="E4" t="str">
-        <v>test, test</v>
-      </c>
-      <c r="G4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="H4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="I4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="K4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="L4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="M4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="N4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="O4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="P4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="R4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>report</v>
-      </c>
-      <c r="B5" t="str">
-        <v>progress</v>
-      </c>
-      <c r="C5" t="str">
-        <v>test, test</v>
-      </c>
-      <c r="E5" t="str">
-        <v>test, test</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="I5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="J5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="K5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="L5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="M5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="N5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="O5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="P5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="R5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>student</v>
-      </c>
-      <c r="B6" t="str">
-        <v>new</v>
-      </c>
-      <c r="C6" t="str">
-        <v>test, test</v>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v>member, other</v>
-      </c>
-      <c r="R6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>upload</v>
-      </c>
-      <c r="B7" t="str">
-        <v>test</v>
-      </c>
-      <c r="D7" t="str">
-        <v>test, test</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Pozefsky, Diane</v>
-      </c>
-      <c r="G7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="H7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="I7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="J7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="K7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="L7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="M7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="N7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="O7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="P7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="Q7" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="R7" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="S2" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/progressReportTemp.xlsx
+++ b/data/progressReportTemp.xlsx
@@ -375,120 +375,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>semestersEnrolled</v>
+      </c>
+      <c r="B1" t="str">
         <v>lastName</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>firstName</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>advisor</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>otherAdvisor</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>researchAdvisor</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>otherResearchAdvisor</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>prpPassed</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>technicalWritingApproved</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>backgroundApproved</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>researchPlanningMeeting</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>programProductRequirement</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>msProgramOfStudyApproved</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>phdProgramOfStudyApproved</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>committeeCompApproved</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>phdProposalApproved</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>oralExamPassed</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>dissertationDefencePassed</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>dissertationSubmitted</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>notes</v>
+      </c>
+      <c r="U1" t="str">
+        <v>academicReview</v>
+      </c>
+      <c r="V1" t="str">
+        <v>employmentReview</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>fake</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>fake</v>
+        <v>dasdasd</v>
       </c>
       <c r="C2" t="str">
-        <v>Test, Test</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Test, Test</v>
-      </c>
-      <c r="G2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="H2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="I2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="N2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="O2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="P2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="R2" t="str">
-        <v>2019-09-18</v>
-      </c>
-      <c r="S2" t="str">
+        <v>dasda</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v>dqwdwqd</v>
+      </c>
+      <c r="C3" t="str">
+        <v>qddq</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v>ko</v>
+      </c>
+      <c r="C4" t="str">
+        <v>megan</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Note #1: new big note (2023-04-17)_x000d_    She had come to the conclusion that you could tell a lot about a person by their ears. The way they stuck out and the size of the earlobes could give you wonderful insights into the person. Of course, she couldn't scientifically prove any of this, but that didn't matter to her. Before anything else, she would size up the ears of the person she was talking to._x000d_
+    It had been a simple realization that had changed Debra's life perspective. It was really so simple that she was embarrassed that she had lived the previous five years with the way she measured her worth. Now that she saw what she had been doing, she could see how sad it was. That made her all the more relieved she had made the change. The number of hearts her Instagram posts received wasn't any longer the indication of her own self-worth._x000d_
+    It was easy to spot her. All you needed to do was look at her socks. They were never a matching pair. One would be green while the other would be blue. One would reach her knee while the other barely touched her ankle. Every other part of her was perfect, but never the socks. They were her micro act of rebellion._x000d_
+_x000d_
+_x000d__x000d_</v>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v>sas</v>
+      </c>
+      <c r="C5" t="str">
+        <v>sas</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>tan</v>
+      </c>
+      <c r="C6" t="str">
+        <v>tunn</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V6"/>
   </ignoredErrors>
 </worksheet>
 </file>